--- a/config/config_vps_US.xlsx
+++ b/config/config_vps_US.xlsx
@@ -295,6 +295,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -317,6 +332,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -326,47 +387,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,44 +431,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -471,49 +471,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,12 +603,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -586,42 +622,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,11 +687,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,17 +741,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,189 +784,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1330,19 +1330,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/config/config_vps_US.xlsx
+++ b/config/config_vps_US.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>AppID_v1_adslock1-5</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>http://91.216.190.228/config/native_ad_2011.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2012.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2012.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2012.png</t>
   </si>
 </sst>
 </file>
@@ -263,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -298,6 +310,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -310,6 +329,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -318,15 +402,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -341,32 +419,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,10 +435,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,50 +449,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -471,181 +483,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,6 +714,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -726,21 +786,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -751,187 +796,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1743,6 +1755,26 @@
       </c>
       <c r="F22" s="8" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1813,6 +1845,10 @@
     <hyperlink ref="D22" r:id="rId64" display="http://91.216.190.228/config/ad_full_2011.png" tooltip="http://185.207.154.61:80/config/ad_full_2011.png"/>
     <hyperlink ref="F22" r:id="rId65" display="http://91.216.190.228/config/native_ad_2011.png" tooltip="http://185.207.154.61:80/config/native_ad_2011.png"/>
     <hyperlink ref="C22" r:id="rId66" display="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest" tooltip="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest"/>
+    <hyperlink ref="E23" r:id="rId67" display="http://91.216.190.228/config/icon_2012.png" tooltip="http://91.216.190.228/config/icon_2012.png"/>
+    <hyperlink ref="D23" r:id="rId68" display="http://91.216.190.228/config/ad_full_2012.png" tooltip="http://91.216.190.228/config/ad_full_2012.png"/>
+    <hyperlink ref="F23" r:id="rId69" display="http://91.216.190.228/config/native_ad_2012.png" tooltip="http://91.216.190.228/config/native_ad_2012.png"/>
+    <hyperlink ref="C23" r:id="rId70" display="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend" tooltip="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config_vps_US.xlsx
+++ b/config/config_vps_US.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>AppID_v1_adslock1-5</t>
   </si>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>http://91.216.190.228/config/native_ad_2012.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.find.differences.detective.worldtour</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_1007.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_1007.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_1007.png</t>
   </si>
 </sst>
 </file>
@@ -275,10 +287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -315,7 +327,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,125 +442,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -483,181 +495,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,21 +711,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -733,7 +730,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,9 +752,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,7 +765,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,13 +785,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,10 +816,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,16 +828,16 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,115 +847,115 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1775,6 +1787,26 @@
       </c>
       <c r="F23" s="8" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1849,6 +1881,10 @@
     <hyperlink ref="D23" r:id="rId68" display="http://91.216.190.228/config/ad_full_2012.png" tooltip="http://91.216.190.228/config/ad_full_2012.png"/>
     <hyperlink ref="F23" r:id="rId69" display="http://91.216.190.228/config/native_ad_2012.png" tooltip="http://91.216.190.228/config/native_ad_2012.png"/>
     <hyperlink ref="C23" r:id="rId70" display="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend" tooltip="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend"/>
+    <hyperlink ref="F24" r:id="rId71" display="http://91.216.190.228/config/native_ad_1007.png" tooltip="http://91.216.190.228/config/native_ad_1007.png"/>
+    <hyperlink ref="E24" r:id="rId72" display="http://91.216.190.228/config/icon_1007.png" tooltip="http://91.216.190.228/config/icon_1007.png"/>
+    <hyperlink ref="D24" r:id="rId73" display="http://91.216.190.228/config/ad_full_1007.png" tooltip="http://91.216.190.228/config/ad_full_1007.png"/>
+    <hyperlink ref="C24" r:id="rId74" display="https://play.google.com/store/apps/details?id=com.find.differences.detective.worldtour"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config_vps_US.xlsx
+++ b/config/config_vps_US.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>AppID_v1_adslock1-5</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>http://91.216.190.228/config/native_ad_1007.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_1008.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_1008.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_1008.png</t>
   </si>
 </sst>
 </file>
@@ -288,8 +300,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -319,6 +331,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -327,7 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,17 +367,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,9 +437,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,7 +446,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,81 +467,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -495,31 +507,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,133 +663,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,6 +723,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -722,15 +749,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,6 +783,24 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -784,76 +820,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,97 +877,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1313,10 +1325,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1799,14 +1811,34 @@
       <c r="C24" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1885,6 +1917,10 @@
     <hyperlink ref="E24" r:id="rId72" display="http://91.216.190.228/config/icon_1007.png" tooltip="http://91.216.190.228/config/icon_1007.png"/>
     <hyperlink ref="D24" r:id="rId73" display="http://91.216.190.228/config/ad_full_1007.png" tooltip="http://91.216.190.228/config/ad_full_1007.png"/>
     <hyperlink ref="C24" r:id="rId74" display="https://play.google.com/store/apps/details?id=com.find.differences.detective.worldtour"/>
+    <hyperlink ref="F25" r:id="rId75" display="http://91.216.190.228/config/native_ad_1008.png" tooltip="http://91.216.190.228/config/native_ad_1008.png"/>
+    <hyperlink ref="E25" r:id="rId76" display="http://91.216.190.228/config/icon_1008.png" tooltip="http://91.216.190.228/config/icon_1008.png"/>
+    <hyperlink ref="D25" r:id="rId77" display="http://91.216.190.228/config/ad_full_1008.png" tooltip="http://91.216.190.228/config/ad_full_1008.png"/>
+    <hyperlink ref="C25" r:id="rId78" display="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree" tooltip="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config_vps_US.xlsx
+++ b/config/config_vps_US.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>AppID_v1_adslock1-5</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>http://91.216.190.228/config/native_ad_1008.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.cs.assassin.hunter</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_1009.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_1009.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_1009.png</t>
   </si>
 </sst>
 </file>
@@ -299,9 +311,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -331,6 +343,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -340,51 +465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,81 +479,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -507,25 +519,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,151 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,17 +735,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,55 +765,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,154 +788,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,10 +1337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1839,6 +1851,26 @@
       </c>
       <c r="F25" s="4" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
+        <v>1009</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1921,6 +1953,10 @@
     <hyperlink ref="E25" r:id="rId76" display="http://91.216.190.228/config/icon_1008.png" tooltip="http://91.216.190.228/config/icon_1008.png"/>
     <hyperlink ref="D25" r:id="rId77" display="http://91.216.190.228/config/ad_full_1008.png" tooltip="http://91.216.190.228/config/ad_full_1008.png"/>
     <hyperlink ref="C25" r:id="rId78" display="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree" tooltip="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree"/>
+    <hyperlink ref="F26" r:id="rId79" display="http://91.216.190.228/config/native_ad_1009.png" tooltip="http://91.216.190.228/config/native_ad_1009.png"/>
+    <hyperlink ref="E26" r:id="rId80" display="http://91.216.190.228/config/icon_1009.png" tooltip="http://91.216.190.228/config/icon_1009.png"/>
+    <hyperlink ref="D26" r:id="rId81" display="http://91.216.190.228/config/ad_full_1009.png" tooltip="http://91.216.190.228/config/ad_full_1009.png"/>
+    <hyperlink ref="C26" r:id="rId82" display="https://play.google.com/store/apps/details?id=com.cs.assassin.hunter" tooltip="https://play.google.com/store/apps/details?id=com.cs.assassin.hunter"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config_vps_US.xlsx
+++ b/config/config_vps_US.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>AppID_v1_adslock1-5</t>
   </si>
@@ -114,6 +114,42 @@
     <t>http://91.216.190.228/config/native_ad_1006.png</t>
   </si>
   <si>
+    <t>https://play.google.com/store/apps/details?id=com.find.differences.detective.worldtour</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_1007.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_1007.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_1007.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_1008.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_1008.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_1008.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.cs.assassin.hunter</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_1009.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_1009.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_1009.png</t>
+  </si>
+  <si>
     <t>https://play.google.com/store/apps/details?id=com.hiddencitygame.finddifferences.fd</t>
   </si>
   <si>
@@ -270,40 +306,25 @@
     <t>http://91.216.190.228/config/native_ad_2012.png</t>
   </si>
   <si>
-    <t>https://play.google.com/store/apps/details?id=com.find.differences.detective.worldtour</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_1007.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_1007.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_1007.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_1008.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_1008.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_1008.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.cs.assassin.hunter</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_1009.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_1009.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_1009.png</t>
+    <t>http://91.216.190.228/config/ad_full_2013.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2013.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2013.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=woodblock.woodoku.woodpuzzleblock</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_4001.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_4001.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_4001.png</t>
   </si>
 </sst>
 </file>
@@ -311,9 +332,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -343,8 +364,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -365,22 +423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,14 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -434,15 +471,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,6 +485,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -470,21 +506,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -519,25 +540,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +654,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,61 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,73 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,6 +757,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -767,24 +803,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,165 +853,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1337,10 +1358,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1375,13 +1396,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -1554,99 +1575,99 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
-        <v>2001</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6">
-        <v>2002</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -1655,7 +1676,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -1675,7 +1696,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -1695,7 +1716,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -1715,7 +1736,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -1735,7 +1756,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -1755,7 +1776,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -1775,7 +1796,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -1795,7 +1816,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -1814,63 +1835,103 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="3">
-        <v>1007</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3">
-        <v>1008</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="3">
-        <v>1009</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="8" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6">
+        <v>4001</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1894,69 +1955,77 @@
     <hyperlink ref="D8" r:id="rId17" display="http://91.216.190.228/config/ad_full_1004.png"/>
     <hyperlink ref="D9" r:id="rId18" display="http://91.216.190.228/config/ad_full_1005.png"/>
     <hyperlink ref="D10" r:id="rId19" display="http://91.216.190.228/config/ad_full_1006.png" tooltip="http://185.207.154.61:80/config/ad_full_1006.png"/>
-    <hyperlink ref="E11" r:id="rId20" display="http://91.216.190.228/config/icon_2000.png"/>
-    <hyperlink ref="D11" r:id="rId21" display="http://91.216.190.228/config/ad_full_2000.png"/>
-    <hyperlink ref="F11" r:id="rId22" display="http://91.216.190.228/config/native_ad_2000.png"/>
-    <hyperlink ref="E12" r:id="rId23" display="http://91.216.190.228/config/icon_2001.png" tooltip="http://185.207.154.61:80/config/icon_2001.png"/>
-    <hyperlink ref="D12" r:id="rId24" display="http://91.216.190.228/config/ad_full_2001.png" tooltip="http://185.207.154.61:80/config/ad_full_2001.png"/>
-    <hyperlink ref="F12" r:id="rId25" display="http://91.216.190.228/config/native_ad_2001.png" tooltip="http://185.207.154.61:80/config/native_ad_2001.png"/>
-    <hyperlink ref="C12" r:id="rId26" display="https://play.google.com/store/apps/details?id=com.puzzlegame.sudoku.free"/>
-    <hyperlink ref="E13" r:id="rId27" display="http://91.216.190.228/config/icon_2002.png" tooltip="http://185.207.154.61:80/config/icon_2002.png"/>
-    <hyperlink ref="D13" r:id="rId28" display="http://91.216.190.228/config/ad_full_2002.png" tooltip="http://185.207.154.61:80/config/ad_full_2002.png"/>
-    <hyperlink ref="F13" r:id="rId29" display="http://91.216.190.228/config/native_ad_2002.png" tooltip="http://185.207.154.61:80/config/native_ad_2002.png"/>
-    <hyperlink ref="C13" r:id="rId30" display="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter" tooltip="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter"/>
-    <hyperlink ref="E14" r:id="rId31" display="http://91.216.190.228/config/icon_2003.png" tooltip="http://185.207.154.61:80/config/icon_2003.png"/>
-    <hyperlink ref="D14" r:id="rId32" display="http://91.216.190.228/config/ad_full_2003.png" tooltip="http://185.207.154.61:80/config/ad_full_2003.png"/>
-    <hyperlink ref="F14" r:id="rId33" display="http://91.216.190.228/config/native_ad_2003.png" tooltip="http://185.207.154.61:80/config/native_ad_2003.png"/>
-    <hyperlink ref="C14" r:id="rId34" display="https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game" tooltip="https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game"/>
-    <hyperlink ref="E15" r:id="rId35" display="http://91.216.190.228/config/icon_2004.png" tooltip="http://185.207.154.61:80/config/icon_2004.png"/>
-    <hyperlink ref="D15" r:id="rId36" display="http://91.216.190.228/config/ad_full_2004.png" tooltip="http://185.207.154.61:80/config/ad_full_2004.png"/>
-    <hyperlink ref="F15" r:id="rId37" display="http://91.216.190.228/config/native_ad_2004.png" tooltip="http://185.207.154.61:80/config/native_ad_2004.png"/>
-    <hyperlink ref="C15" r:id="rId38" display="https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend" tooltip="https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend"/>
-    <hyperlink ref="E16" r:id="rId39" display="http://91.216.190.228/config/icon_2005.png" tooltip="http://185.207.154.61:80/config/icon_2005.png"/>
-    <hyperlink ref="D16" r:id="rId40" display="http://91.216.190.228/config/ad_full_2005.png" tooltip="http://185.207.154.61:80/config/ad_full_2005.png"/>
-    <hyperlink ref="F16" r:id="rId41" display="http://91.216.190.228/config/native_ad_2005.png" tooltip="http://185.207.154.61:80/config/native_ad_2005.png"/>
-    <hyperlink ref="C16" r:id="rId42" display="https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend" tooltip="https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend"/>
-    <hyperlink ref="E17" r:id="rId43" display="http://91.216.190.228/config/icon_2006.png" tooltip="http://185.207.154.61:80/config/icon_2006.png"/>
-    <hyperlink ref="E18" r:id="rId44" display="http://91.216.190.228/config/icon_2007.png" tooltip="http://185.207.154.61:80/config/icon_2007.png"/>
-    <hyperlink ref="E19" r:id="rId45" display="http://91.216.190.228/config/icon_2008.png" tooltip="http://185.207.154.61:80/config/icon_2008.png"/>
-    <hyperlink ref="E20" r:id="rId46" display="http://91.216.190.228/config/icon_2009.png" tooltip="http://185.207.154.61:80/config/icon_2009.png"/>
-    <hyperlink ref="E21" r:id="rId47" display="http://91.216.190.228/config/icon_2010.png" tooltip="http://185.207.154.61:80/config/icon_2010.png"/>
-    <hyperlink ref="D17" r:id="rId48" display="http://91.216.190.228/config/ad_full_2006.png" tooltip="http://185.207.154.61:80/config/ad_full_2006.png"/>
-    <hyperlink ref="D18" r:id="rId49" display="http://91.216.190.228/config/ad_full_2007.png" tooltip="http://185.207.154.61:80/config/ad_full_2007.png"/>
-    <hyperlink ref="D19" r:id="rId50" display="http://91.216.190.228/config/ad_full_2008.png" tooltip="http://185.207.154.61:80/config/ad_full_2008.png"/>
-    <hyperlink ref="D20" r:id="rId51" display="http://91.216.190.228/config/ad_full_2009.png" tooltip="http://185.207.154.61:80/config/ad_full_2009.png"/>
-    <hyperlink ref="D21" r:id="rId52" display="http://91.216.190.228/config/ad_full_2010.png" tooltip="http://185.207.154.61:80/config/ad_full_2010.png"/>
-    <hyperlink ref="F17" r:id="rId53" display="http://91.216.190.228/config/native_ad_2006.png" tooltip="http://185.207.154.61:80/config/native_ad_2006.png"/>
-    <hyperlink ref="F18" r:id="rId54" display="http://91.216.190.228/config/native_ad_2007.png" tooltip="http://185.207.154.61:80/config/native_ad_2007.png"/>
-    <hyperlink ref="F19" r:id="rId55" display="http://91.216.190.228/config/native_ad_2008.png" tooltip="http://185.207.154.61:80/config/native_ad_2008.png"/>
-    <hyperlink ref="F20" r:id="rId56" display="http://91.216.190.228/config/native_ad_2009.png" tooltip="http://185.207.154.61:80/config/native_ad_2009.png"/>
-    <hyperlink ref="F21" r:id="rId57" display="http://91.216.190.228/config/native_ad_2010.png" tooltip="http://185.207.154.61:80/config/native_ad_2010.png"/>
-    <hyperlink ref="C17" r:id="rId58" display="https://play.google.com/store/apps/details?id=com.resestudio.princessblast" tooltip="https://play.google.com/store/apps/details?id=com.resestudio.princessblast"/>
-    <hyperlink ref="C18" r:id="rId59" display="https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles" tooltip="https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles"/>
-    <hyperlink ref="C19" r:id="rId60" display="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame" tooltip="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame"/>
-    <hyperlink ref="C20" r:id="rId61" display="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat" tooltip="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat"/>
-    <hyperlink ref="C21" r:id="rId62" display="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish" tooltip="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish"/>
-    <hyperlink ref="E22" r:id="rId63" display="http://91.216.190.228/config/icon_2011.png" tooltip="http://185.207.154.61:80/config/icon_2011.png"/>
-    <hyperlink ref="D22" r:id="rId64" display="http://91.216.190.228/config/ad_full_2011.png" tooltip="http://185.207.154.61:80/config/ad_full_2011.png"/>
-    <hyperlink ref="F22" r:id="rId65" display="http://91.216.190.228/config/native_ad_2011.png" tooltip="http://185.207.154.61:80/config/native_ad_2011.png"/>
-    <hyperlink ref="C22" r:id="rId66" display="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest" tooltip="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest"/>
-    <hyperlink ref="E23" r:id="rId67" display="http://91.216.190.228/config/icon_2012.png" tooltip="http://91.216.190.228/config/icon_2012.png"/>
-    <hyperlink ref="D23" r:id="rId68" display="http://91.216.190.228/config/ad_full_2012.png" tooltip="http://91.216.190.228/config/ad_full_2012.png"/>
-    <hyperlink ref="F23" r:id="rId69" display="http://91.216.190.228/config/native_ad_2012.png" tooltip="http://91.216.190.228/config/native_ad_2012.png"/>
-    <hyperlink ref="C23" r:id="rId70" display="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend" tooltip="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend"/>
-    <hyperlink ref="F24" r:id="rId71" display="http://91.216.190.228/config/native_ad_1007.png" tooltip="http://91.216.190.228/config/native_ad_1007.png"/>
-    <hyperlink ref="E24" r:id="rId72" display="http://91.216.190.228/config/icon_1007.png" tooltip="http://91.216.190.228/config/icon_1007.png"/>
-    <hyperlink ref="D24" r:id="rId73" display="http://91.216.190.228/config/ad_full_1007.png" tooltip="http://91.216.190.228/config/ad_full_1007.png"/>
-    <hyperlink ref="C24" r:id="rId74" display="https://play.google.com/store/apps/details?id=com.find.differences.detective.worldtour"/>
-    <hyperlink ref="F25" r:id="rId75" display="http://91.216.190.228/config/native_ad_1008.png" tooltip="http://91.216.190.228/config/native_ad_1008.png"/>
-    <hyperlink ref="E25" r:id="rId76" display="http://91.216.190.228/config/icon_1008.png" tooltip="http://91.216.190.228/config/icon_1008.png"/>
-    <hyperlink ref="D25" r:id="rId77" display="http://91.216.190.228/config/ad_full_1008.png" tooltip="http://91.216.190.228/config/ad_full_1008.png"/>
-    <hyperlink ref="C25" r:id="rId78" display="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree" tooltip="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree"/>
-    <hyperlink ref="F26" r:id="rId79" display="http://91.216.190.228/config/native_ad_1009.png" tooltip="http://91.216.190.228/config/native_ad_1009.png"/>
-    <hyperlink ref="E26" r:id="rId80" display="http://91.216.190.228/config/icon_1009.png" tooltip="http://91.216.190.228/config/icon_1009.png"/>
-    <hyperlink ref="D26" r:id="rId81" display="http://91.216.190.228/config/ad_full_1009.png" tooltip="http://91.216.190.228/config/ad_full_1009.png"/>
-    <hyperlink ref="C26" r:id="rId82" display="https://play.google.com/store/apps/details?id=com.cs.assassin.hunter" tooltip="https://play.google.com/store/apps/details?id=com.cs.assassin.hunter"/>
+    <hyperlink ref="E14" r:id="rId20" display="http://91.216.190.228/config/icon_2000.png"/>
+    <hyperlink ref="D14" r:id="rId21" display="http://91.216.190.228/config/ad_full_2000.png"/>
+    <hyperlink ref="F14" r:id="rId22" display="http://91.216.190.228/config/native_ad_2000.png"/>
+    <hyperlink ref="E15" r:id="rId23" display="http://91.216.190.228/config/icon_2001.png" tooltip="http://185.207.154.61:80/config/icon_2001.png"/>
+    <hyperlink ref="D15" r:id="rId24" display="http://91.216.190.228/config/ad_full_2001.png" tooltip="http://185.207.154.61:80/config/ad_full_2001.png"/>
+    <hyperlink ref="F15" r:id="rId25" display="http://91.216.190.228/config/native_ad_2001.png" tooltip="http://185.207.154.61:80/config/native_ad_2001.png"/>
+    <hyperlink ref="C15" r:id="rId26" display="https://play.google.com/store/apps/details?id=com.puzzlegame.sudoku.free"/>
+    <hyperlink ref="E16" r:id="rId27" display="http://91.216.190.228/config/icon_2002.png" tooltip="http://185.207.154.61:80/config/icon_2002.png"/>
+    <hyperlink ref="D16" r:id="rId28" display="http://91.216.190.228/config/ad_full_2002.png" tooltip="http://185.207.154.61:80/config/ad_full_2002.png"/>
+    <hyperlink ref="F16" r:id="rId29" display="http://91.216.190.228/config/native_ad_2002.png" tooltip="http://185.207.154.61:80/config/native_ad_2002.png"/>
+    <hyperlink ref="C16" r:id="rId30" display="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter" tooltip="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter"/>
+    <hyperlink ref="E17" r:id="rId31" display="http://91.216.190.228/config/icon_2003.png" tooltip="http://185.207.154.61:80/config/icon_2003.png"/>
+    <hyperlink ref="D17" r:id="rId32" display="http://91.216.190.228/config/ad_full_2003.png" tooltip="http://185.207.154.61:80/config/ad_full_2003.png"/>
+    <hyperlink ref="F17" r:id="rId33" display="http://91.216.190.228/config/native_ad_2003.png" tooltip="http://185.207.154.61:80/config/native_ad_2003.png"/>
+    <hyperlink ref="C17" r:id="rId34" display="https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game" tooltip="https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game"/>
+    <hyperlink ref="E18" r:id="rId35" display="http://91.216.190.228/config/icon_2004.png" tooltip="http://185.207.154.61:80/config/icon_2004.png"/>
+    <hyperlink ref="D18" r:id="rId36" display="http://91.216.190.228/config/ad_full_2004.png" tooltip="http://185.207.154.61:80/config/ad_full_2004.png"/>
+    <hyperlink ref="F18" r:id="rId37" display="http://91.216.190.228/config/native_ad_2004.png" tooltip="http://185.207.154.61:80/config/native_ad_2004.png"/>
+    <hyperlink ref="C18" r:id="rId38" display="https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend" tooltip="https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend"/>
+    <hyperlink ref="E19" r:id="rId39" display="http://91.216.190.228/config/icon_2005.png" tooltip="http://185.207.154.61:80/config/icon_2005.png"/>
+    <hyperlink ref="D19" r:id="rId40" display="http://91.216.190.228/config/ad_full_2005.png" tooltip="http://185.207.154.61:80/config/ad_full_2005.png"/>
+    <hyperlink ref="F19" r:id="rId41" display="http://91.216.190.228/config/native_ad_2005.png" tooltip="http://185.207.154.61:80/config/native_ad_2005.png"/>
+    <hyperlink ref="C19" r:id="rId42" display="https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend" tooltip="https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend"/>
+    <hyperlink ref="E20" r:id="rId43" display="http://91.216.190.228/config/icon_2006.png" tooltip="http://185.207.154.61:80/config/icon_2006.png"/>
+    <hyperlink ref="E21" r:id="rId44" display="http://91.216.190.228/config/icon_2007.png" tooltip="http://185.207.154.61:80/config/icon_2007.png"/>
+    <hyperlink ref="E22" r:id="rId45" display="http://91.216.190.228/config/icon_2008.png" tooltip="http://185.207.154.61:80/config/icon_2008.png"/>
+    <hyperlink ref="E23" r:id="rId46" display="http://91.216.190.228/config/icon_2009.png" tooltip="http://185.207.154.61:80/config/icon_2009.png"/>
+    <hyperlink ref="E24" r:id="rId47" display="http://91.216.190.228/config/icon_2010.png" tooltip="http://185.207.154.61:80/config/icon_2010.png"/>
+    <hyperlink ref="D20" r:id="rId48" display="http://91.216.190.228/config/ad_full_2006.png" tooltip="http://185.207.154.61:80/config/ad_full_2006.png"/>
+    <hyperlink ref="D21" r:id="rId49" display="http://91.216.190.228/config/ad_full_2007.png" tooltip="http://185.207.154.61:80/config/ad_full_2007.png"/>
+    <hyperlink ref="D22" r:id="rId50" display="http://91.216.190.228/config/ad_full_2008.png" tooltip="http://185.207.154.61:80/config/ad_full_2008.png"/>
+    <hyperlink ref="D23" r:id="rId51" display="http://91.216.190.228/config/ad_full_2009.png" tooltip="http://185.207.154.61:80/config/ad_full_2009.png"/>
+    <hyperlink ref="D24" r:id="rId52" display="http://91.216.190.228/config/ad_full_2010.png" tooltip="http://185.207.154.61:80/config/ad_full_2010.png"/>
+    <hyperlink ref="F20" r:id="rId53" display="http://91.216.190.228/config/native_ad_2006.png" tooltip="http://185.207.154.61:80/config/native_ad_2006.png"/>
+    <hyperlink ref="F21" r:id="rId54" display="http://91.216.190.228/config/native_ad_2007.png" tooltip="http://185.207.154.61:80/config/native_ad_2007.png"/>
+    <hyperlink ref="F22" r:id="rId55" display="http://91.216.190.228/config/native_ad_2008.png" tooltip="http://185.207.154.61:80/config/native_ad_2008.png"/>
+    <hyperlink ref="F23" r:id="rId56" display="http://91.216.190.228/config/native_ad_2009.png" tooltip="http://185.207.154.61:80/config/native_ad_2009.png"/>
+    <hyperlink ref="F24" r:id="rId57" display="http://91.216.190.228/config/native_ad_2010.png" tooltip="http://185.207.154.61:80/config/native_ad_2010.png"/>
+    <hyperlink ref="C20" r:id="rId58" display="https://play.google.com/store/apps/details?id=com.resestudio.princessblast" tooltip="https://play.google.com/store/apps/details?id=com.resestudio.princessblast"/>
+    <hyperlink ref="C21" r:id="rId59" display="https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles" tooltip="https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles"/>
+    <hyperlink ref="C22" r:id="rId60" display="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame" tooltip="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame"/>
+    <hyperlink ref="C23" r:id="rId61" display="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat" tooltip="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat"/>
+    <hyperlink ref="C24" r:id="rId62" display="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish" tooltip="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish"/>
+    <hyperlink ref="E25" r:id="rId63" display="http://91.216.190.228/config/icon_2011.png" tooltip="http://185.207.154.61:80/config/icon_2011.png"/>
+    <hyperlink ref="D25" r:id="rId64" display="http://91.216.190.228/config/ad_full_2011.png" tooltip="http://185.207.154.61:80/config/ad_full_2011.png"/>
+    <hyperlink ref="F25" r:id="rId65" display="http://91.216.190.228/config/native_ad_2011.png" tooltip="http://185.207.154.61:80/config/native_ad_2011.png"/>
+    <hyperlink ref="C25" r:id="rId66" display="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest" tooltip="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest"/>
+    <hyperlink ref="E26" r:id="rId67" display="http://91.216.190.228/config/icon_2012.png" tooltip="http://91.216.190.228/config/icon_2012.png"/>
+    <hyperlink ref="D26" r:id="rId68" display="http://91.216.190.228/config/ad_full_2012.png" tooltip="http://91.216.190.228/config/ad_full_2012.png"/>
+    <hyperlink ref="F26" r:id="rId69" display="http://91.216.190.228/config/native_ad_2012.png" tooltip="http://91.216.190.228/config/native_ad_2012.png"/>
+    <hyperlink ref="C26" r:id="rId70" display="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend" tooltip="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend"/>
+    <hyperlink ref="F11" r:id="rId71" display="http://91.216.190.228/config/native_ad_1007.png" tooltip="http://91.216.190.228/config/native_ad_1007.png"/>
+    <hyperlink ref="E11" r:id="rId72" display="http://91.216.190.228/config/icon_1007.png" tooltip="http://91.216.190.228/config/icon_1007.png"/>
+    <hyperlink ref="D11" r:id="rId73" display="http://91.216.190.228/config/ad_full_1007.png" tooltip="http://91.216.190.228/config/ad_full_1007.png"/>
+    <hyperlink ref="C11" r:id="rId74" display="https://play.google.com/store/apps/details?id=com.find.differences.detective.worldtour"/>
+    <hyperlink ref="F12" r:id="rId75" display="http://91.216.190.228/config/native_ad_1008.png" tooltip="http://91.216.190.228/config/native_ad_1008.png"/>
+    <hyperlink ref="E12" r:id="rId76" display="http://91.216.190.228/config/icon_1008.png" tooltip="http://91.216.190.228/config/icon_1008.png"/>
+    <hyperlink ref="D12" r:id="rId77" display="http://91.216.190.228/config/ad_full_1008.png" tooltip="http://91.216.190.228/config/ad_full_1008.png"/>
+    <hyperlink ref="C12" r:id="rId78" display="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree" tooltip="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree"/>
+    <hyperlink ref="F13" r:id="rId79" display="http://91.216.190.228/config/native_ad_1009.png" tooltip="http://91.216.190.228/config/native_ad_1009.png"/>
+    <hyperlink ref="E13" r:id="rId80" display="http://91.216.190.228/config/icon_1009.png" tooltip="http://91.216.190.228/config/icon_1009.png"/>
+    <hyperlink ref="D13" r:id="rId81" display="http://91.216.190.228/config/ad_full_1009.png" tooltip="http://91.216.190.228/config/ad_full_1009.png"/>
+    <hyperlink ref="C13" r:id="rId82" display="https://play.google.com/store/apps/details?id=com.cs.assassin.hunter" tooltip="https://play.google.com/store/apps/details?id=com.cs.assassin.hunter"/>
+    <hyperlink ref="E27" r:id="rId83" display="http://91.216.190.228/config/icon_2013.png" tooltip="http://91.216.190.228/config/icon_2013.png"/>
+    <hyperlink ref="D27" r:id="rId84" display="http://91.216.190.228/config/ad_full_2013.png" tooltip="http://91.216.190.228/config/ad_full_2013.png"/>
+    <hyperlink ref="C27" r:id="rId70" display="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend" tooltip="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend"/>
+    <hyperlink ref="E28" r:id="rId85" display="http://91.216.190.228/config/icon_4001.png" tooltip="http://91.216.190.228/config/icon_4001.png"/>
+    <hyperlink ref="D28" r:id="rId86" display="http://91.216.190.228/config/ad_full_4001.png" tooltip="http://91.216.190.228/config/ad_full_4001.png"/>
+    <hyperlink ref="C28" r:id="rId87" display="https://play.google.com/store/apps/details?id=woodblock.woodoku.woodpuzzleblock" tooltip="https://play.google.com/store/apps/details?id=woodblock.woodoku.woodpuzzleblock"/>
+    <hyperlink ref="F27" r:id="rId88" display="http://91.216.190.228/config/native_ad_2013.png" tooltip="http://91.216.190.228/config/native_ad_2013.png"/>
+    <hyperlink ref="F28" r:id="rId89" display="http://91.216.190.228/config/native_ad_4001.png" tooltip="http://91.216.190.228/config/native_ad_4001.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config_vps_US.xlsx
+++ b/config/config_vps_US.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,6 +114,162 @@
     <t>http://91.216.190.228/config/native_ad_1006.png</t>
   </si>
   <si>
+    <t>https://play.google.com/store/apps/details?id=com.hiddencitygame.finddifferences.fd</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2000.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2000.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2000.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.puzzlegame.sudoku.free</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2001.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2001.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2001.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.assassin.killer.hunter</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2002.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2002.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2002.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2003.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2003.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2003.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2004.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2004.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2004.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2005.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2005.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2005.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.resestudio.princessblast</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2006.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2006.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2006.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2007.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2007.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2007.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2008.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2008.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2008.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2009.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2009.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2009.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2010.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2010.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2010.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2011.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2011.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2011.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/ad_full_2012.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/icon_2012.png</t>
+  </si>
+  <si>
+    <t>http://91.216.190.228/config/native_ad_2012.png</t>
+  </si>
+  <si>
     <t>https://play.google.com/store/apps/details?id=com.find.differences.detective.worldtour</t>
   </si>
   <si>
@@ -148,162 +304,6 @@
   </si>
   <si>
     <t>http://91.216.190.228/config/native_ad_1009.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.hiddencitygame.finddifferences.fd</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2000.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2000.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2000.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.puzzlegame.sudoku.free</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2001.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2001.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2001.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.assassin.killer.hunter</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2002.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2002.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2002.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2003.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2003.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2003.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2004.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2004.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2004.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2005.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2005.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2005.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.resestudio.princessblast</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2006.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2006.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2006.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2007.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2007.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2007.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2008.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2008.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2008.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2009.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2009.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2009.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2010.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2010.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2010.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2011.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2011.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2011.png</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/ad_full_2012.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/icon_2012.png</t>
-  </si>
-  <si>
-    <t>http://91.216.190.228/config/native_ad_2012.png</t>
   </si>
   <si>
     <t>http://91.216.190.228/config/ad_full_2013.png</t>
@@ -366,37 +366,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,7 +411,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,30 +455,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,30 +470,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,6 +491,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -540,19 +540,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,145 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,21 +757,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -782,6 +767,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,29 +797,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,6 +842,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -861,10 +861,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,16 +873,16 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,16 +892,16 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,97 +910,97 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A11" sqref="$A11:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1575,99 +1575,99 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3">
-        <v>1007</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3">
-        <v>1008</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3">
-        <v>1009</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -1676,7 +1676,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -1835,62 +1835,62 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="A24" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6">
-        <v>2011</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="A25" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="3">
+        <v>1009</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>96</v>
@@ -1955,69 +1955,69 @@
     <hyperlink ref="D8" r:id="rId17" display="http://91.216.190.228/config/ad_full_1004.png"/>
     <hyperlink ref="D9" r:id="rId18" display="http://91.216.190.228/config/ad_full_1005.png"/>
     <hyperlink ref="D10" r:id="rId19" display="http://91.216.190.228/config/ad_full_1006.png" tooltip="http://185.207.154.61:80/config/ad_full_1006.png"/>
-    <hyperlink ref="E14" r:id="rId20" display="http://91.216.190.228/config/icon_2000.png"/>
-    <hyperlink ref="D14" r:id="rId21" display="http://91.216.190.228/config/ad_full_2000.png"/>
-    <hyperlink ref="F14" r:id="rId22" display="http://91.216.190.228/config/native_ad_2000.png"/>
-    <hyperlink ref="E15" r:id="rId23" display="http://91.216.190.228/config/icon_2001.png" tooltip="http://185.207.154.61:80/config/icon_2001.png"/>
-    <hyperlink ref="D15" r:id="rId24" display="http://91.216.190.228/config/ad_full_2001.png" tooltip="http://185.207.154.61:80/config/ad_full_2001.png"/>
-    <hyperlink ref="F15" r:id="rId25" display="http://91.216.190.228/config/native_ad_2001.png" tooltip="http://185.207.154.61:80/config/native_ad_2001.png"/>
-    <hyperlink ref="C15" r:id="rId26" display="https://play.google.com/store/apps/details?id=com.puzzlegame.sudoku.free"/>
-    <hyperlink ref="E16" r:id="rId27" display="http://91.216.190.228/config/icon_2002.png" tooltip="http://185.207.154.61:80/config/icon_2002.png"/>
-    <hyperlink ref="D16" r:id="rId28" display="http://91.216.190.228/config/ad_full_2002.png" tooltip="http://185.207.154.61:80/config/ad_full_2002.png"/>
-    <hyperlink ref="F16" r:id="rId29" display="http://91.216.190.228/config/native_ad_2002.png" tooltip="http://185.207.154.61:80/config/native_ad_2002.png"/>
-    <hyperlink ref="C16" r:id="rId30" display="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter" tooltip="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter"/>
-    <hyperlink ref="E17" r:id="rId31" display="http://91.216.190.228/config/icon_2003.png" tooltip="http://185.207.154.61:80/config/icon_2003.png"/>
-    <hyperlink ref="D17" r:id="rId32" display="http://91.216.190.228/config/ad_full_2003.png" tooltip="http://185.207.154.61:80/config/ad_full_2003.png"/>
-    <hyperlink ref="F17" r:id="rId33" display="http://91.216.190.228/config/native_ad_2003.png" tooltip="http://185.207.154.61:80/config/native_ad_2003.png"/>
-    <hyperlink ref="C17" r:id="rId34" display="https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game" tooltip="https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game"/>
-    <hyperlink ref="E18" r:id="rId35" display="http://91.216.190.228/config/icon_2004.png" tooltip="http://185.207.154.61:80/config/icon_2004.png"/>
-    <hyperlink ref="D18" r:id="rId36" display="http://91.216.190.228/config/ad_full_2004.png" tooltip="http://185.207.154.61:80/config/ad_full_2004.png"/>
-    <hyperlink ref="F18" r:id="rId37" display="http://91.216.190.228/config/native_ad_2004.png" tooltip="http://185.207.154.61:80/config/native_ad_2004.png"/>
-    <hyperlink ref="C18" r:id="rId38" display="https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend" tooltip="https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend"/>
-    <hyperlink ref="E19" r:id="rId39" display="http://91.216.190.228/config/icon_2005.png" tooltip="http://185.207.154.61:80/config/icon_2005.png"/>
-    <hyperlink ref="D19" r:id="rId40" display="http://91.216.190.228/config/ad_full_2005.png" tooltip="http://185.207.154.61:80/config/ad_full_2005.png"/>
-    <hyperlink ref="F19" r:id="rId41" display="http://91.216.190.228/config/native_ad_2005.png" tooltip="http://185.207.154.61:80/config/native_ad_2005.png"/>
-    <hyperlink ref="C19" r:id="rId42" display="https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend" tooltip="https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend"/>
-    <hyperlink ref="E20" r:id="rId43" display="http://91.216.190.228/config/icon_2006.png" tooltip="http://185.207.154.61:80/config/icon_2006.png"/>
-    <hyperlink ref="E21" r:id="rId44" display="http://91.216.190.228/config/icon_2007.png" tooltip="http://185.207.154.61:80/config/icon_2007.png"/>
-    <hyperlink ref="E22" r:id="rId45" display="http://91.216.190.228/config/icon_2008.png" tooltip="http://185.207.154.61:80/config/icon_2008.png"/>
-    <hyperlink ref="E23" r:id="rId46" display="http://91.216.190.228/config/icon_2009.png" tooltip="http://185.207.154.61:80/config/icon_2009.png"/>
-    <hyperlink ref="E24" r:id="rId47" display="http://91.216.190.228/config/icon_2010.png" tooltip="http://185.207.154.61:80/config/icon_2010.png"/>
-    <hyperlink ref="D20" r:id="rId48" display="http://91.216.190.228/config/ad_full_2006.png" tooltip="http://185.207.154.61:80/config/ad_full_2006.png"/>
-    <hyperlink ref="D21" r:id="rId49" display="http://91.216.190.228/config/ad_full_2007.png" tooltip="http://185.207.154.61:80/config/ad_full_2007.png"/>
-    <hyperlink ref="D22" r:id="rId50" display="http://91.216.190.228/config/ad_full_2008.png" tooltip="http://185.207.154.61:80/config/ad_full_2008.png"/>
-    <hyperlink ref="D23" r:id="rId51" display="http://91.216.190.228/config/ad_full_2009.png" tooltip="http://185.207.154.61:80/config/ad_full_2009.png"/>
-    <hyperlink ref="D24" r:id="rId52" display="http://91.216.190.228/config/ad_full_2010.png" tooltip="http://185.207.154.61:80/config/ad_full_2010.png"/>
-    <hyperlink ref="F20" r:id="rId53" display="http://91.216.190.228/config/native_ad_2006.png" tooltip="http://185.207.154.61:80/config/native_ad_2006.png"/>
-    <hyperlink ref="F21" r:id="rId54" display="http://91.216.190.228/config/native_ad_2007.png" tooltip="http://185.207.154.61:80/config/native_ad_2007.png"/>
-    <hyperlink ref="F22" r:id="rId55" display="http://91.216.190.228/config/native_ad_2008.png" tooltip="http://185.207.154.61:80/config/native_ad_2008.png"/>
-    <hyperlink ref="F23" r:id="rId56" display="http://91.216.190.228/config/native_ad_2009.png" tooltip="http://185.207.154.61:80/config/native_ad_2009.png"/>
-    <hyperlink ref="F24" r:id="rId57" display="http://91.216.190.228/config/native_ad_2010.png" tooltip="http://185.207.154.61:80/config/native_ad_2010.png"/>
-    <hyperlink ref="C20" r:id="rId58" display="https://play.google.com/store/apps/details?id=com.resestudio.princessblast" tooltip="https://play.google.com/store/apps/details?id=com.resestudio.princessblast"/>
-    <hyperlink ref="C21" r:id="rId59" display="https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles" tooltip="https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles"/>
-    <hyperlink ref="C22" r:id="rId60" display="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame" tooltip="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame"/>
-    <hyperlink ref="C23" r:id="rId61" display="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat" tooltip="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat"/>
-    <hyperlink ref="C24" r:id="rId62" display="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish" tooltip="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish"/>
-    <hyperlink ref="E25" r:id="rId63" display="http://91.216.190.228/config/icon_2011.png" tooltip="http://185.207.154.61:80/config/icon_2011.png"/>
-    <hyperlink ref="D25" r:id="rId64" display="http://91.216.190.228/config/ad_full_2011.png" tooltip="http://185.207.154.61:80/config/ad_full_2011.png"/>
-    <hyperlink ref="F25" r:id="rId65" display="http://91.216.190.228/config/native_ad_2011.png" tooltip="http://185.207.154.61:80/config/native_ad_2011.png"/>
-    <hyperlink ref="C25" r:id="rId66" display="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest" tooltip="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest"/>
-    <hyperlink ref="E26" r:id="rId67" display="http://91.216.190.228/config/icon_2012.png" tooltip="http://91.216.190.228/config/icon_2012.png"/>
-    <hyperlink ref="D26" r:id="rId68" display="http://91.216.190.228/config/ad_full_2012.png" tooltip="http://91.216.190.228/config/ad_full_2012.png"/>
-    <hyperlink ref="F26" r:id="rId69" display="http://91.216.190.228/config/native_ad_2012.png" tooltip="http://91.216.190.228/config/native_ad_2012.png"/>
-    <hyperlink ref="C26" r:id="rId70" display="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend" tooltip="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend"/>
-    <hyperlink ref="F11" r:id="rId71" display="http://91.216.190.228/config/native_ad_1007.png" tooltip="http://91.216.190.228/config/native_ad_1007.png"/>
-    <hyperlink ref="E11" r:id="rId72" display="http://91.216.190.228/config/icon_1007.png" tooltip="http://91.216.190.228/config/icon_1007.png"/>
-    <hyperlink ref="D11" r:id="rId73" display="http://91.216.190.228/config/ad_full_1007.png" tooltip="http://91.216.190.228/config/ad_full_1007.png"/>
-    <hyperlink ref="C11" r:id="rId74" display="https://play.google.com/store/apps/details?id=com.find.differences.detective.worldtour"/>
-    <hyperlink ref="F12" r:id="rId75" display="http://91.216.190.228/config/native_ad_1008.png" tooltip="http://91.216.190.228/config/native_ad_1008.png"/>
-    <hyperlink ref="E12" r:id="rId76" display="http://91.216.190.228/config/icon_1008.png" tooltip="http://91.216.190.228/config/icon_1008.png"/>
-    <hyperlink ref="D12" r:id="rId77" display="http://91.216.190.228/config/ad_full_1008.png" tooltip="http://91.216.190.228/config/ad_full_1008.png"/>
-    <hyperlink ref="C12" r:id="rId78" display="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree" tooltip="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree"/>
-    <hyperlink ref="F13" r:id="rId79" display="http://91.216.190.228/config/native_ad_1009.png" tooltip="http://91.216.190.228/config/native_ad_1009.png"/>
-    <hyperlink ref="E13" r:id="rId80" display="http://91.216.190.228/config/icon_1009.png" tooltip="http://91.216.190.228/config/icon_1009.png"/>
-    <hyperlink ref="D13" r:id="rId81" display="http://91.216.190.228/config/ad_full_1009.png" tooltip="http://91.216.190.228/config/ad_full_1009.png"/>
-    <hyperlink ref="C13" r:id="rId82" display="https://play.google.com/store/apps/details?id=com.cs.assassin.hunter" tooltip="https://play.google.com/store/apps/details?id=com.cs.assassin.hunter"/>
+    <hyperlink ref="E11" r:id="rId20" display="http://91.216.190.228/config/icon_2000.png"/>
+    <hyperlink ref="D11" r:id="rId21" display="http://91.216.190.228/config/ad_full_2000.png"/>
+    <hyperlink ref="F11" r:id="rId22" display="http://91.216.190.228/config/native_ad_2000.png"/>
+    <hyperlink ref="E12" r:id="rId23" display="http://91.216.190.228/config/icon_2001.png" tooltip="http://185.207.154.61:80/config/icon_2001.png"/>
+    <hyperlink ref="D12" r:id="rId24" display="http://91.216.190.228/config/ad_full_2001.png" tooltip="http://185.207.154.61:80/config/ad_full_2001.png"/>
+    <hyperlink ref="F12" r:id="rId25" display="http://91.216.190.228/config/native_ad_2001.png" tooltip="http://185.207.154.61:80/config/native_ad_2001.png"/>
+    <hyperlink ref="C12" r:id="rId26" display="https://play.google.com/store/apps/details?id=com.puzzlegame.sudoku.free"/>
+    <hyperlink ref="E13" r:id="rId27" display="http://91.216.190.228/config/icon_2002.png" tooltip="http://185.207.154.61:80/config/icon_2002.png"/>
+    <hyperlink ref="D13" r:id="rId28" display="http://91.216.190.228/config/ad_full_2002.png" tooltip="http://185.207.154.61:80/config/ad_full_2002.png"/>
+    <hyperlink ref="F13" r:id="rId29" display="http://91.216.190.228/config/native_ad_2002.png" tooltip="http://185.207.154.61:80/config/native_ad_2002.png"/>
+    <hyperlink ref="C13" r:id="rId30" display="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter" tooltip="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter"/>
+    <hyperlink ref="E14" r:id="rId31" display="http://91.216.190.228/config/icon_2003.png" tooltip="http://185.207.154.61:80/config/icon_2003.png"/>
+    <hyperlink ref="D14" r:id="rId32" display="http://91.216.190.228/config/ad_full_2003.png" tooltip="http://185.207.154.61:80/config/ad_full_2003.png"/>
+    <hyperlink ref="F14" r:id="rId33" display="http://91.216.190.228/config/native_ad_2003.png" tooltip="http://185.207.154.61:80/config/native_ad_2003.png"/>
+    <hyperlink ref="C14" r:id="rId34" display="https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game" tooltip="https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game"/>
+    <hyperlink ref="E15" r:id="rId35" display="http://91.216.190.228/config/icon_2004.png" tooltip="http://185.207.154.61:80/config/icon_2004.png"/>
+    <hyperlink ref="D15" r:id="rId36" display="http://91.216.190.228/config/ad_full_2004.png" tooltip="http://185.207.154.61:80/config/ad_full_2004.png"/>
+    <hyperlink ref="F15" r:id="rId37" display="http://91.216.190.228/config/native_ad_2004.png" tooltip="http://185.207.154.61:80/config/native_ad_2004.png"/>
+    <hyperlink ref="C15" r:id="rId38" display="https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend" tooltip="https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend"/>
+    <hyperlink ref="E16" r:id="rId39" display="http://91.216.190.228/config/icon_2005.png" tooltip="http://185.207.154.61:80/config/icon_2005.png"/>
+    <hyperlink ref="D16" r:id="rId40" display="http://91.216.190.228/config/ad_full_2005.png" tooltip="http://185.207.154.61:80/config/ad_full_2005.png"/>
+    <hyperlink ref="F16" r:id="rId41" display="http://91.216.190.228/config/native_ad_2005.png" tooltip="http://185.207.154.61:80/config/native_ad_2005.png"/>
+    <hyperlink ref="C16" r:id="rId42" display="https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend" tooltip="https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend"/>
+    <hyperlink ref="E17" r:id="rId43" display="http://91.216.190.228/config/icon_2006.png" tooltip="http://185.207.154.61:80/config/icon_2006.png"/>
+    <hyperlink ref="E18" r:id="rId44" display="http://91.216.190.228/config/icon_2007.png" tooltip="http://185.207.154.61:80/config/icon_2007.png"/>
+    <hyperlink ref="E19" r:id="rId45" display="http://91.216.190.228/config/icon_2008.png" tooltip="http://185.207.154.61:80/config/icon_2008.png"/>
+    <hyperlink ref="E20" r:id="rId46" display="http://91.216.190.228/config/icon_2009.png" tooltip="http://185.207.154.61:80/config/icon_2009.png"/>
+    <hyperlink ref="E21" r:id="rId47" display="http://91.216.190.228/config/icon_2010.png" tooltip="http://185.207.154.61:80/config/icon_2010.png"/>
+    <hyperlink ref="D17" r:id="rId48" display="http://91.216.190.228/config/ad_full_2006.png" tooltip="http://185.207.154.61:80/config/ad_full_2006.png"/>
+    <hyperlink ref="D18" r:id="rId49" display="http://91.216.190.228/config/ad_full_2007.png" tooltip="http://185.207.154.61:80/config/ad_full_2007.png"/>
+    <hyperlink ref="D19" r:id="rId50" display="http://91.216.190.228/config/ad_full_2008.png" tooltip="http://185.207.154.61:80/config/ad_full_2008.png"/>
+    <hyperlink ref="D20" r:id="rId51" display="http://91.216.190.228/config/ad_full_2009.png" tooltip="http://185.207.154.61:80/config/ad_full_2009.png"/>
+    <hyperlink ref="D21" r:id="rId52" display="http://91.216.190.228/config/ad_full_2010.png" tooltip="http://185.207.154.61:80/config/ad_full_2010.png"/>
+    <hyperlink ref="F17" r:id="rId53" display="http://91.216.190.228/config/native_ad_2006.png" tooltip="http://185.207.154.61:80/config/native_ad_2006.png"/>
+    <hyperlink ref="F18" r:id="rId54" display="http://91.216.190.228/config/native_ad_2007.png" tooltip="http://185.207.154.61:80/config/native_ad_2007.png"/>
+    <hyperlink ref="F19" r:id="rId55" display="http://91.216.190.228/config/native_ad_2008.png" tooltip="http://185.207.154.61:80/config/native_ad_2008.png"/>
+    <hyperlink ref="F20" r:id="rId56" display="http://91.216.190.228/config/native_ad_2009.png" tooltip="http://185.207.154.61:80/config/native_ad_2009.png"/>
+    <hyperlink ref="F21" r:id="rId57" display="http://91.216.190.228/config/native_ad_2010.png" tooltip="http://185.207.154.61:80/config/native_ad_2010.png"/>
+    <hyperlink ref="C17" r:id="rId58" display="https://play.google.com/store/apps/details?id=com.resestudio.princessblast" tooltip="https://play.google.com/store/apps/details?id=com.resestudio.princessblast"/>
+    <hyperlink ref="C18" r:id="rId59" display="https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles" tooltip="https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles"/>
+    <hyperlink ref="C19" r:id="rId60" display="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame" tooltip="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame"/>
+    <hyperlink ref="C20" r:id="rId61" display="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat" tooltip="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat"/>
+    <hyperlink ref="C21" r:id="rId62" display="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish" tooltip="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish"/>
+    <hyperlink ref="E22" r:id="rId63" display="http://91.216.190.228/config/icon_2011.png" tooltip="http://185.207.154.61:80/config/icon_2011.png"/>
+    <hyperlink ref="D22" r:id="rId64" display="http://91.216.190.228/config/ad_full_2011.png" tooltip="http://185.207.154.61:80/config/ad_full_2011.png"/>
+    <hyperlink ref="F22" r:id="rId65" display="http://91.216.190.228/config/native_ad_2011.png" tooltip="http://185.207.154.61:80/config/native_ad_2011.png"/>
+    <hyperlink ref="C22" r:id="rId66" display="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest" tooltip="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest"/>
+    <hyperlink ref="E23" r:id="rId67" display="http://91.216.190.228/config/icon_2012.png" tooltip="http://91.216.190.228/config/icon_2012.png"/>
+    <hyperlink ref="D23" r:id="rId68" display="http://91.216.190.228/config/ad_full_2012.png" tooltip="http://91.216.190.228/config/ad_full_2012.png"/>
+    <hyperlink ref="F23" r:id="rId69" display="http://91.216.190.228/config/native_ad_2012.png" tooltip="http://91.216.190.228/config/native_ad_2012.png"/>
+    <hyperlink ref="C23" r:id="rId70" display="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend" tooltip="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend"/>
+    <hyperlink ref="F24" r:id="rId71" display="http://91.216.190.228/config/native_ad_1007.png" tooltip="http://91.216.190.228/config/native_ad_1007.png"/>
+    <hyperlink ref="E24" r:id="rId72" display="http://91.216.190.228/config/icon_1007.png" tooltip="http://91.216.190.228/config/icon_1007.png"/>
+    <hyperlink ref="D24" r:id="rId73" display="http://91.216.190.228/config/ad_full_1007.png" tooltip="http://91.216.190.228/config/ad_full_1007.png"/>
+    <hyperlink ref="C24" r:id="rId74" display="https://play.google.com/store/apps/details?id=com.find.differences.detective.worldtour"/>
+    <hyperlink ref="F25" r:id="rId75" display="http://91.216.190.228/config/native_ad_1008.png" tooltip="http://91.216.190.228/config/native_ad_1008.png"/>
+    <hyperlink ref="E25" r:id="rId76" display="http://91.216.190.228/config/icon_1008.png" tooltip="http://91.216.190.228/config/icon_1008.png"/>
+    <hyperlink ref="D25" r:id="rId77" display="http://91.216.190.228/config/ad_full_1008.png" tooltip="http://91.216.190.228/config/ad_full_1008.png"/>
+    <hyperlink ref="C25" r:id="rId78" display="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree" tooltip="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree"/>
+    <hyperlink ref="F26" r:id="rId79" display="http://91.216.190.228/config/native_ad_1009.png" tooltip="http://91.216.190.228/config/native_ad_1009.png"/>
+    <hyperlink ref="E26" r:id="rId80" display="http://91.216.190.228/config/icon_1009.png" tooltip="http://91.216.190.228/config/icon_1009.png"/>
+    <hyperlink ref="D26" r:id="rId81" display="http://91.216.190.228/config/ad_full_1009.png" tooltip="http://91.216.190.228/config/ad_full_1009.png"/>
+    <hyperlink ref="C26" r:id="rId82" display="https://play.google.com/store/apps/details?id=com.cs.assassin.hunter" tooltip="https://play.google.com/store/apps/details?id=com.cs.assassin.hunter"/>
     <hyperlink ref="E27" r:id="rId83" display="http://91.216.190.228/config/icon_2013.png" tooltip="http://91.216.190.228/config/icon_2013.png"/>
     <hyperlink ref="D27" r:id="rId84" display="http://91.216.190.228/config/ad_full_2013.png" tooltip="http://91.216.190.228/config/ad_full_2013.png"/>
     <hyperlink ref="C27" r:id="rId70" display="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend" tooltip="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend"/>
